--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_PONTE DE LIMA.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_PONTE DE LIMA.xlsx
@@ -597,64 +597,64 @@
         <v>12127</v>
       </c>
       <c r="H2" t="n">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="I2" t="n">
-        <v>1226</v>
+        <v>1190</v>
       </c>
       <c r="J2" t="n">
-        <v>4930</v>
+        <v>4928</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>1418</v>
+        <v>1331</v>
       </c>
       <c r="M2" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N2" t="n">
-        <v>861</v>
+        <v>882</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="S2" t="n">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="T2" t="n">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="U2" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="V2" t="n">
-        <v>7763</v>
+        <v>7755</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>7823</v>
+        <v>7842</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="AA2" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
